--- a/importar-parceiros-teste.xlsx
+++ b/importar-parceiros-teste.xlsx
@@ -900,7 +900,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>540.316.972-52</t>
+          <t>29.156.378/0001-60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cliente | Fornecedor | Transportadora</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>821.039.546-70</t>
+          <t>60.158.972/0001-30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
